--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\auca\grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Repo\auca\grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXPECTED RESULTS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -102,9 +102,6 @@
     <t>SEMESTER-4</t>
   </si>
   <si>
-    <t>Probability and statistic</t>
-  </si>
-  <si>
     <t>Database Development with PL/SQL</t>
   </si>
   <si>
@@ -123,18 +120,9 @@
     <t>SEMESTER-6</t>
   </si>
   <si>
-    <t>English Proficiency I</t>
-  </si>
-  <si>
-    <t>Data Structure and Algorthim</t>
-  </si>
-  <si>
     <t>Theory of Computation</t>
   </si>
   <si>
-    <t>Emerging technology</t>
-  </si>
-  <si>
     <t>SEMESTER-7</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>Software Project Management</t>
   </si>
   <si>
-    <t>Object Oriented Programming</t>
-  </si>
-  <si>
     <t>SEMESTER-8-SUMMER</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
   </si>
   <si>
     <t>SEMESTER-10</t>
-  </si>
-  <si>
-    <t>English speking Skilss</t>
   </si>
   <si>
     <t>Web Technology and Internet</t>
@@ -364,10 +346,31 @@
     <t>Zero Credits</t>
   </si>
   <si>
-    <t>Management information system</t>
-  </si>
-  <si>
     <t>Theory of computation</t>
+  </si>
+  <si>
+    <t>Health Plinciples</t>
+  </si>
+  <si>
+    <t>Probalibility and Statistics</t>
+  </si>
+  <si>
+    <t>Intro to Linux</t>
+  </si>
+  <si>
+    <t>DB Develeopment with PL/SQL</t>
+  </si>
+  <si>
+    <t>Object Oriented programming</t>
+  </si>
+  <si>
+    <t>Software project Management</t>
+  </si>
+  <si>
+    <t>Management Info System</t>
+  </si>
+  <si>
+    <t>English speaking Skills</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -481,7 +484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,43 +493,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1376,1868 +1379,2056 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="15">
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9">
         <f>I18/G18</f>
         <v>14.018750000000001</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="12">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="12">
         <f t="shared" ref="I13:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>14.9</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>14</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>14.8</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="11">
+      <c r="I18" s="13">
         <f>SUM(I12:I17)</f>
         <v>224.3</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="10" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="15">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9">
         <f>I27/G27</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="15"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>17</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="12">
         <f>G24*H24</f>
         <v>51</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>16.5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="12">
         <f>G25*H25</f>
         <v>49.5</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="5">
         <v>16</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="12">
         <f>G26*H26</f>
         <v>48</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="11">
+      <c r="I27" s="13">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="15">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9">
         <f>I39/G39</f>
         <v>16.144444444444446</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="15"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5">
         <v>4</v>
       </c>
       <c r="H33" s="5">
         <v>15</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="12">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>60</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="5">
         <v>16.8</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="12">
         <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="5">
         <v>15.8</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="12">
         <f t="shared" si="1"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="12"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>16</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="12">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="5">
         <v>17</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="9">
+      <c r="I38" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="11">
+      <c r="I39" s="13">
         <f>SUM(I33:I38)</f>
         <v>290.60000000000002</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="15">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="15"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="5">
         <v>3</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="9">
+      <c r="I44" s="12">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="4:13">
+      <c r="D46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="5">
-        <v>4</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="4:13">
-      <c r="D46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="9">
+      <c r="I46" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="D47" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="9">
+      <c r="I47" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="5">
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="9">
+      <c r="I48" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="D49" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="5">
         <v>3</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="9">
+      <c r="I49" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11">
+      <c r="I50" s="13">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="15">
+      <c r="D51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="15"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="15"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="5">
+        <v>3</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="12">
+        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="5">
+        <v>3</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="4:10">
+      <c r="D58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="5">
-        <v>3</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="9">
-        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="4:10">
-      <c r="D57" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="5">
-        <v>3</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="9">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="5">
+        <v>3</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="4:10">
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="9">
+      <c r="I59" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="9"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="9">
+      <c r="I60" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="9">
+      <c r="I61" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="9"/>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="11">
+      <c r="I62" s="13">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="15">
+      <c r="D63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="9">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="15"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="15"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="7"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="D68" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="5">
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="9">
+      <c r="I68" s="12">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="9"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="D69" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="5">
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="9">
+      <c r="I69" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="9"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="D70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="5">
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="9">
+      <c r="I70" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="9"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="5"/>
+      <c r="D71" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="9">
+      <c r="I71" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="9"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="D72" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="9">
+      <c r="I72" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="9"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="9">
+      <c r="I73" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="9"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="11">
+      <c r="I74" s="13">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="11"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="15">
+      <c r="D75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="9">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="15"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="15"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="7"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="D80" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="5">
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="9">
+      <c r="I80" s="12">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="9"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="D81" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="5">
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="9">
+      <c r="I81" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="9"/>
+      <c r="J81" s="12"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="5">
-        <v>2</v>
-      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="9">
+      <c r="I82" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="9"/>
+      <c r="J82" s="12"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="5">
-        <v>3</v>
-      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="9">
+      <c r="I83" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="9"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="5">
-        <v>4</v>
-      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="9">
+      <c r="I84" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="9"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="9">
+      <c r="I85" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="9"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="10"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="11">
+      <c r="I86" s="13">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="11"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="15">
+      <c r="D87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="9">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="15"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="15"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="7"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="D92" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="5">
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="9">
+      <c r="I92" s="12">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="9"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="D93" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="5">
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="9">
+      <c r="I93" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="9"/>
+      <c r="J93" s="12"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="D94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="5">
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="9">
+      <c r="I94" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="9"/>
+      <c r="J94" s="12"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="9">
+      <c r="I95" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="9"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="9">
+      <c r="I96" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="9"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" spans="4:19">
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="9">
+      <c r="I97" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="9"/>
+      <c r="J97" s="12"/>
     </row>
     <row r="98" spans="4:19">
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="10"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="11">
+      <c r="I98" s="13">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="11"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="4:19">
-      <c r="D99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="15">
+      <c r="D99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="9">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:19">
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="15"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="4:19">
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="15"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="9"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
       <c r="S101" s="5"/>
     </row>
     <row r="102" spans="4:19">
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
       <c r="S102" s="5"/>
     </row>
     <row r="103" spans="4:19" ht="26">
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="7"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
+      <c r="J103" s="10"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
       <c r="S103" s="5"/>
     </row>
     <row r="104" spans="4:19">
-      <c r="D104" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
+      <c r="D104" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="5">
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="9">
+      <c r="I104" s="12">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="9"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" spans="4:19">
-      <c r="D105" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="D105" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="5">
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="9">
+      <c r="I105" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="9"/>
+      <c r="J105" s="12"/>
     </row>
     <row r="106" spans="4:19">
-      <c r="D106" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="D106" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="5">
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="9">
+      <c r="I106" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="9"/>
+      <c r="J106" s="12"/>
     </row>
     <row r="107" spans="4:19">
-      <c r="D107" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="D107" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="5">
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="9">
+      <c r="I107" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="9"/>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" spans="4:19">
-      <c r="D108" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="D108" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="5">
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="9">
+      <c r="I108" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="9"/>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" spans="4:19">
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="9">
+      <c r="I109" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="9"/>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" spans="4:19">
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="11">
+      <c r="I110" s="13">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="11"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="4:19">
-      <c r="D111" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="15">
+      <c r="D111" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="9">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:19">
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="15"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="15"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="7"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="D116" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="5">
         <v>3</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="I116" s="9">
+      <c r="I116" s="12">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="9"/>
+      <c r="J116" s="12"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="5">
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="9">
+      <c r="I117" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="9"/>
+      <c r="J117" s="12"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="D118" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="5">
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="9">
+      <c r="I118" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="9"/>
+      <c r="J118" s="12"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="D119" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="5">
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="9">
+      <c r="I119" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="9"/>
+      <c r="J119" s="12"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="9">
+      <c r="I120" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="9"/>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="9">
+      <c r="I121" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="9"/>
+      <c r="J121" s="12"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="11">
+      <c r="I122" s="13">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="11"/>
+      <c r="J122" s="13"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="15">
+      <c r="D123" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="9">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="15"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="15"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I127" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="7"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="D128" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="5">
         <v>3</v>
       </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="9">
+      <c r="I128" s="12">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="9"/>
+      <c r="J128" s="12"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="D129" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="5">
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="9">
+      <c r="I129" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="9"/>
+      <c r="J129" s="12"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="D130" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
       <c r="G130" s="5">
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="9">
+      <c r="I130" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="9"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="9">
+      <c r="I131" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="9"/>
+      <c r="J131" s="12"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="9">
+      <c r="I132" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="9"/>
+      <c r="J132" s="12"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="9">
+      <c r="I133" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="9"/>
+      <c r="J133" s="12"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="10"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>13</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="11">
+      <c r="I134" s="13">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="11"/>
+      <c r="J134" s="13"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7">
+      <c r="D135" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
-        <v>149</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7">
+        <v>145</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10">
         <f>SUM(I110,I98,I86,I74,I62,I50,I39,I27,I122,I134,I18)</f>
         <v>663.40000000000009</v>
       </c>
-      <c r="J135" s="7"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="17">
+      <c r="D137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7">
         <f>I135/G135</f>
-        <v>4.4523489932885916</v>
-      </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+        <v>4.575172413793104</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
     </row>
     <row r="139" spans="4:10">
-      <c r="D139" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18">
+      <c r="D139" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8">
         <f>SUM(G122,G134,G110,G98,G86,G74,G62,G50,G39,G27,G18)</f>
-        <v>149</v>
-      </c>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
     </row>
     <row r="140" spans="4:10">
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="P102:R102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="P103:R103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="I116:J116"/>
     <mergeCell ref="D137:F138"/>
     <mergeCell ref="G137:J138"/>
     <mergeCell ref="D139:F140"/>
@@ -3262,198 +3453,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="D126:J126"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="P102:R102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="P103:R103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
@@ -3537,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:M138"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3547,244 +3546,244 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="15">
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9">
         <f>I18/G18</f>
         <v>16.590624999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>16.8</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="12">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>17.8</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>16.55</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>15</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="11">
+      <c r="I18" s="13">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="15">
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9">
         <f>I27/G27</f>
         <v>16.066666666666698</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="15"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="11" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="5">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
@@ -3793,19 +3792,19 @@
         <f>0.71*20</f>
         <v>14.2</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="12">
         <f>G24*H24</f>
         <v>42.6</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="11" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
@@ -3814,19 +3813,19 @@
         <f>0.93*20</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="12">
         <f>G25*H25</f>
         <v>55.8</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="11" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="5">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
@@ -3835,1632 +3834,1759 @@
         <f>0.77*20</f>
         <v>15.4</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="12">
         <f>G26*H26</f>
         <v>46.2</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="11">
+      <c r="I27" s="13">
         <f>SUM(I24:I26)</f>
         <v>144.6</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="15">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="15"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="11" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5">
         <f>'EXPECTED RESULTS'!G33</f>
         <v>4</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="9">
+      <c r="I33" s="12">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="13" t="str">
+      <c r="D34" s="11" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="5">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="9">
+      <c r="I34" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="11" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="9">
+      <c r="I35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="12"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="11" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="5">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="9">
+      <c r="I36" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="13" t="str">
+      <c r="D37" s="11" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="5">
         <f>'EXPECTED RESULTS'!G37</f>
         <v>4</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="9">
+      <c r="I37" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="9">
+      <c r="I38" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="11">
+      <c r="I39" s="13">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="15">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="15"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="13" t="str">
+      <c r="D44" s="11" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
-        <v>Probability and statistic</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+        <v>Bible Doctrines</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="5">
         <f>'EXPECTED RESULTS'!G44</f>
         <v>3</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="9">
+      <c r="I44" s="12">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="13" t="str">
+      <c r="D45" s="11" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
-        <v>Database Development with PL/SQL</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+        <v>Academic English Writing</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="5">
         <f>'EXPECTED RESULTS'!G45</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="9">
+      <c r="I45" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="13" t="str">
+      <c r="D46" s="11" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="9">
+      <c r="I46" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="13" t="str">
+      <c r="D47" s="11" t="str">
         <f>'EXPECTED RESULTS'!D47</f>
-        <v>Management information system</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+        <v>Health Plinciples</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="5">
         <f>'EXPECTED RESULTS'!G47</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="9">
+      <c r="I47" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="18" t="str">
+        <f>'EXPECTED RESULTS'!D48</f>
+        <v>Probalibility and Statistics</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48">
+        <f>'EXPECTED RESULTS'!G48</f>
+        <v>3</v>
+      </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="9">
+      <c r="I48" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="5"/>
+      <c r="D49" s="11" t="str">
+        <f>'EXPECTED RESULTS'!D49</f>
+        <v>Theory of computation</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5">
+        <f>'EXPECTED RESULTS'!G49</f>
+        <v>3</v>
+      </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="9">
+      <c r="I49" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11">
+      <c r="I50" s="13">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="7" t="str">
+      <c r="D51" s="10" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="15">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="15"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="15"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="13" t="str">
+      <c r="D56" s="11" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
-        <v>English Phonology</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+        <v>Requirements Engineering</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="5">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="9">
+      <c r="I56" s="12">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="9"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="13" t="str">
+      <c r="D57" s="11" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
-        <v>Web Design</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+        <v>Intro to Linux</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="5">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="9">
+      <c r="I57" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="9"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="13">
+      <c r="D58" s="11" t="str">
         <f>'EXPECTED RESULTS'!D58</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+        <v>Web Design</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="5">
         <f>'EXPECTED RESULTS'!G58</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="9">
+      <c r="I58" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="9">
+      <c r="I59" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="9"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="9">
+      <c r="I60" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="9">
+      <c r="I61" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="9"/>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="11">
+      <c r="I62" s="13">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="15">
+      <c r="D63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="9">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="15"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="15"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="7"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="13" t="str">
+      <c r="D68" s="11" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
-        <v>English Proficiency I</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+        <v>DB Develeopment with PL/SQL</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="5">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="9">
+      <c r="I68" s="12">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="9"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="13" t="str">
+      <c r="D69" s="11" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
-        <v>Data Structure and Algorthim</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+        <v>Object Oriented programming</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="5">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="9">
+      <c r="I69" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="9"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="13" t="str">
+      <c r="D70" s="11" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
-        <v>Theory of Computation</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+        <v>Software project Management</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="5">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="9">
+      <c r="I70" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="9"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="13">
+      <c r="D71" s="11" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+        <v>Management Info System</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="5">
         <f>'EXPECTED RESULTS'!G71</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="9">
+      <c r="I71" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="9"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="13" t="str">
+      <c r="D72" s="11" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
-        <v>Emerging technology</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+        <v>Operating Systems</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="5">
         <f>'EXPECTED RESULTS'!G72</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="9">
+      <c r="I72" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="9"/>
+      <c r="J72" s="12"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="9">
+      <c r="I73" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="9"/>
+      <c r="J73" s="12"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="11">
+      <c r="I74" s="13">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="11"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="15">
+      <c r="D75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="9">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="15"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="15"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="7"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="13" t="str">
+      <c r="D80" s="11" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="5">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="9">
+      <c r="I80" s="12">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="9"/>
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="11" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="5">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="9">
+      <c r="I81" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="9"/>
+      <c r="J81" s="12"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="13" t="str">
+      <c r="D82" s="11">
         <f>'EXPECTED RESULTS'!D82</f>
-        <v>Health Principles</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="5">
         <f>'EXPECTED RESULTS'!G82</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="9">
+      <c r="I82" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="9"/>
+      <c r="J82" s="12"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="13" t="str">
+      <c r="D83" s="11">
         <f>'EXPECTED RESULTS'!D83</f>
-        <v>Software Project Management</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="5">
         <f>'EXPECTED RESULTS'!G83</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="9">
+      <c r="I83" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="9"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="13" t="str">
+      <c r="D84" s="11">
         <f>'EXPECTED RESULTS'!D84</f>
-        <v>Object Oriented Programming</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="5">
         <f>'EXPECTED RESULTS'!G84</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="9">
+      <c r="I84" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="9"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="9">
+      <c r="I85" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="9"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="10"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="11">
+      <c r="I86" s="13">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="11"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="7" t="str">
+      <c r="D87" s="10" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="15">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="9">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="15"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="15"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="7"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="13" t="str">
+      <c r="D92" s="11" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="5">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="9">
+      <c r="I92" s="12">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="9"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="13" t="str">
+      <c r="D93" s="11" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="5">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="9">
+      <c r="I93" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="9"/>
+      <c r="J93" s="12"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="13" t="str">
+      <c r="D94" s="11" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="5">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="9">
+      <c r="I94" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="9"/>
+      <c r="J94" s="12"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="9">
+      <c r="I95" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="9"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="9">
+      <c r="I96" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="9"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="9">
+      <c r="I97" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="9"/>
+      <c r="J97" s="12"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="10"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="11">
+      <c r="I98" s="13">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="11"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="15">
+      <c r="D99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="9">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="15"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="15"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="4:10" ht="26">
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="7"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="13" t="str">
+      <c r="D104" s="11" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="5">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="9">
+      <c r="I104" s="12">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="9"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="13" t="str">
+      <c r="D105" s="11" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="5">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="9">
+      <c r="I105" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="9"/>
+      <c r="J105" s="12"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="13" t="str">
+      <c r="D106" s="11" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="5">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="9">
+      <c r="I106" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="9"/>
+      <c r="J106" s="12"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="13" t="str">
+      <c r="D107" s="11" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="5">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="9">
+      <c r="I107" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="9"/>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="13" t="str">
+      <c r="D108" s="11" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="5">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="9">
+      <c r="I108" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="9"/>
+      <c r="J108" s="12"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="9">
+      <c r="I109" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="9"/>
+      <c r="J109" s="12"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="11">
+      <c r="I110" s="13">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="11"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="15">
+      <c r="D111" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="9">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="15"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="15"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="7"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="9">
+      <c r="I116" s="12">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="9"/>
+      <c r="J116" s="12"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="13" t="str">
+      <c r="D117" s="11" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="5">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="9">
+      <c r="I117" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="9"/>
+      <c r="J117" s="12"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="13" t="str">
+      <c r="D118" s="11" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="5">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="9">
+      <c r="I118" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="9"/>
+      <c r="J118" s="12"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="13" t="str">
+      <c r="D119" s="11" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="5">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="9">
+      <c r="I119" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="9"/>
+      <c r="J119" s="12"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="9">
+      <c r="I120" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="9"/>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="9">
+      <c r="I121" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="9"/>
+      <c r="J121" s="12"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="11">
+      <c r="I122" s="13">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="11"/>
+      <c r="J122" s="13"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="15">
+      <c r="D123" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="9">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="15"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="15"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I127" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="7"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="9">
+      <c r="I128" s="12">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="9"/>
+      <c r="J128" s="12"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="13" t="str">
+      <c r="D129" s="11" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="5">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="9">
+      <c r="I129" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="9"/>
+      <c r="J129" s="12"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="13" t="str">
+      <c r="D130" s="11" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
       <c r="G130" s="5">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="9">
+      <c r="I130" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="9"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="9">
+      <c r="I131" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="9"/>
+      <c r="J131" s="12"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="9">
+      <c r="I132" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="9"/>
+      <c r="J132" s="12"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="9">
+      <c r="I133" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="9"/>
+      <c r="J133" s="12"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="10"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="11">
+      <c r="I134" s="13">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="11"/>
+      <c r="J134" s="13"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7">
+      <c r="D135" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
-        <v>137</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7">
+        <v>139</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
         <v>410.04999999999995</v>
       </c>
-      <c r="J135" s="7"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="17">
+      <c r="D137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7">
         <f>I135/G135</f>
-        <v>2.9930656934306565</v>
-      </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="D87:I89"/>
-    <mergeCell ref="D99:I101"/>
-    <mergeCell ref="D111:I113"/>
-    <mergeCell ref="D123:I125"/>
-    <mergeCell ref="D135:E136"/>
-    <mergeCell ref="D137:F138"/>
-    <mergeCell ref="G137:J138"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="D75:I77"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
     <mergeCell ref="D8:I9"/>
     <mergeCell ref="D19:I21"/>
     <mergeCell ref="D28:I30"/>
@@ -5471,12 +5597,6 @@
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="D130:F130"/>
     <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
     <mergeCell ref="D121:F121"/>
     <mergeCell ref="I121:J121"/>
     <mergeCell ref="D122:F122"/>
@@ -5491,39 +5611,15 @@
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="I117:J117"/>
     <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
     <mergeCell ref="D90:J90"/>
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="I91:J91"/>
@@ -5539,114 +5635,30 @@
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D87:I89"/>
+    <mergeCell ref="D99:I101"/>
+    <mergeCell ref="D111:I113"/>
+    <mergeCell ref="D123:I125"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="D137:F138"/>
+    <mergeCell ref="G137:J138"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D119:F119"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
@@ -5741,32 +5753,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5781,162 +5793,162 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -5946,52 +5958,52 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="EXPECTED RESULTS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -349,28 +349,34 @@
     <t>Theory of computation</t>
   </si>
   <si>
-    <t>Health Plinciples</t>
-  </si>
-  <si>
     <t>Probalibility and Statistics</t>
   </si>
   <si>
-    <t>Intro to Linux</t>
-  </si>
-  <si>
-    <t>DB Develeopment with PL/SQL</t>
-  </si>
-  <si>
     <t>Object Oriented programming</t>
   </si>
   <si>
     <t>Software project Management</t>
   </si>
   <si>
-    <t>Management Info System</t>
-  </si>
-  <si>
     <t>English speaking Skills</t>
+  </si>
+  <si>
+    <t>Bible Dioctrines</t>
+  </si>
+  <si>
+    <t>Healph Principles</t>
+  </si>
+  <si>
+    <t>Spoftware Quality Assurance</t>
+  </si>
+  <si>
+    <t>SoftwareModeling and design</t>
+  </si>
+  <si>
+    <t>Software Tesiting Techiniques</t>
+  </si>
+  <si>
+    <t>DB Development with PL/SQL</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +499,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,36 +541,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,61 +548,11 @@
   <dxfs count="38">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -679,6 +638,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -729,21 +738,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -774,16 +783,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -864,6 +863,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1366,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:S140"/>
+  <dimension ref="D8:Q140"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:F119"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1379,2056 +1388,1866 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9">
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16">
         <f>I18/G18</f>
-        <v>14.018750000000001</v>
+        <v>14.018749999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f t="shared" ref="I13:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>14.9</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>14</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>14.8</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f>SUM(I12:I17)</f>
-        <v>224.3</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>224.29999999999998</v>
+      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="8" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16">
         <f>I27/G27</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>17</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f>G24*H24</f>
         <v>51</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>16.5</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <f>G25*H25</f>
         <v>49.5</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="5">
         <v>16</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <f>G26*H26</f>
         <v>48</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16">
         <f>I39/G39</f>
         <v>16.144444444444446</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="4:13">
-      <c r="D33" s="11" t="s">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="5">
         <v>4</v>
       </c>
       <c r="H33" s="5">
         <v>15</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>60</v>
       </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:13">
-      <c r="D34" s="11" t="s">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="5">
         <v>16.8</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="4:13">
-      <c r="D35" s="11" t="s">
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="5">
         <v>15.8</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="4:13">
-      <c r="D36" s="11" t="s">
+      <c r="J35" s="10"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>16</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="4:13">
-      <c r="D37" s="11" t="s">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="5">
         <v>17</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="4:13">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="4:13">
-      <c r="D39" s="13" t="s">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="D39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <f>SUM(I33:I38)</f>
         <v>290.60000000000002</v>
       </c>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="10" t="s">
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="4:11" ht="15" customHeight="1">
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:13">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="4:13">
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="10" t="s">
+    <row r="41" spans="4:11">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="4:11">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="4:11" ht="26">
+      <c r="D43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="4:13">
-      <c r="D44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="12">
+      <c r="I44" s="10">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="4:13">
-      <c r="D45" s="16" t="s">
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="4:11">
+      <c r="D45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="4:13">
-      <c r="D46" s="11" t="s">
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="4:11">
+      <c r="D46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="4:13">
-      <c r="D47" s="11" t="s">
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="4:11">
+      <c r="D47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="4:11">
+      <c r="D48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="5">
         <v>2</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="12">
+      <c r="H49" s="5"/>
+      <c r="I49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="4:13">
-      <c r="D48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="5">
-        <v>3</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="4:10">
-      <c r="D49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="5">
-        <v>3</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="13"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="9">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="5">
+        <v>3</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="10">
+        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="5">
+        <v>3</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="4:10">
+      <c r="D58" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="5">
-        <v>3</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="12">
-        <f t="shared" ref="I56:I61" si="3">G56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="4:10">
-      <c r="D57" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="5">
-        <v>3</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="12">
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="5">
+        <v>3</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="4:10">
-      <c r="D58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="5">
-        <v>3</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="12">
+      <c r="I60" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="12">
+      <c r="I61" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
         <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="13"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="D68" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="5">
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="12">
+      <c r="I68" s="10">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="D69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="5">
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="12">
+      <c r="I69" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="12"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="D70" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="5">
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="12">
+      <c r="I70" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="12"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="5">
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="12">
+      <c r="I71" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="D72" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="12">
+      <c r="I72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="5"/>
+      <c r="D73" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="5">
+        <v>3</v>
+      </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="12">
+      <c r="I73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="13">
+      <c r="I74" s="12">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="13"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="9">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="9"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="5">
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="12">
+      <c r="I80" s="10">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="12"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="5">
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="12">
+      <c r="I81" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="12"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="12">
+      <c r="I82" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="12"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="12">
+      <c r="I83" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="12">
+      <c r="I84" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="12">
+      <c r="I85" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="13">
+      <c r="I86" s="12">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="13"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="9">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="9"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="5">
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="12">
+      <c r="I92" s="10">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="12"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="5">
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="12">
+      <c r="I93" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="12"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="5">
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="12">
+      <c r="I94" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="12"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="12">
+      <c r="I95" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="12">
+      <c r="I96" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="4:19">
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="4:17">
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="12">
+      <c r="I97" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12"/>
-    </row>
-    <row r="98" spans="4:19">
-      <c r="D98" s="13" t="s">
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="4:17">
+      <c r="D98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="14"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="13">
+      <c r="I98" s="12">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="4:19">
-      <c r="D99" s="10" t="s">
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="4:17">
+      <c r="D99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="9">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:19">
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="9"/>
-    </row>
-    <row r="101" spans="4:19">
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="9"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="4:19">
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="4:19" ht="26">
-      <c r="D103" s="10" t="s">
+    <row r="100" spans="4:17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="4:17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="4:17">
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="4:17" ht="26">
+      <c r="D103" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="10"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="4:19">
-      <c r="D104" s="11" t="s">
+      <c r="J103" s="8"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="4:17">
+      <c r="D104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="5">
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="12">
+      <c r="I104" s="10">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="12"/>
-    </row>
-    <row r="105" spans="4:19">
-      <c r="D105" s="11" t="s">
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="4:17">
+      <c r="D105" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="5">
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="12">
+      <c r="I105" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="12"/>
-    </row>
-    <row r="106" spans="4:19">
-      <c r="D106" s="11" t="s">
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="4:17">
+      <c r="D106" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="5">
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="12">
+      <c r="I106" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="12"/>
-    </row>
-    <row r="107" spans="4:19">
-      <c r="D107" s="11" t="s">
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="4:17">
+      <c r="D107" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="5">
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="12">
+      <c r="I107" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="12"/>
-    </row>
-    <row r="108" spans="4:19">
-      <c r="D108" s="11" t="s">
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="4:17">
+      <c r="D108" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="5">
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="12">
+      <c r="I108" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12"/>
-    </row>
-    <row r="109" spans="4:19">
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="4:17">
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="12">
+      <c r="I109" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12"/>
-    </row>
-    <row r="110" spans="4:19">
-      <c r="D110" s="13" t="s">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="4:17">
+      <c r="D110" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="13">
+      <c r="I110" s="12">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="13"/>
-    </row>
-    <row r="111" spans="4:19">
-      <c r="D111" s="10" t="s">
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="4:17">
+      <c r="D111" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="9">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="16">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:19">
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="9"/>
+    <row r="112" spans="4:17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="9"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="16"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="10"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="D116" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="5">
         <v>3</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="I116" s="12">
+      <c r="I116" s="10">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="12"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="5">
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="12">
+      <c r="I117" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="12"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="5">
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="12">
+      <c r="I118" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="12"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="5">
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="12">
+      <c r="I119" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="12"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="12">
+      <c r="I120" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="12"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="12">
+      <c r="I121" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="12"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="14"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="13">
+      <c r="I122" s="12">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="13"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="9">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="16">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="9"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="16"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="16"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="10"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="5">
         <v>3</v>
       </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="12">
+      <c r="I128" s="10">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="12"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="5">
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="12">
+      <c r="I129" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="12"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="5">
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="12">
+      <c r="I130" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="12"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="12">
+      <c r="I131" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="12"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="12">
+      <c r="I132" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="12"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="12">
+      <c r="I133" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="12"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="14"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>13</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="13">
+      <c r="I134" s="12">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="13"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
-        <v>145</v>
-      </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10">
+        <v>148</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8">
         <f>SUM(I110,I98,I86,I74,I62,I50,I39,I27,I122,I134,I18)</f>
-        <v>663.40000000000009</v>
-      </c>
-      <c r="J135" s="10"/>
+        <v>663.4</v>
+      </c>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="7">
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18">
         <f>I135/G135</f>
-        <v>4.575172413793104</v>
-      </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+        <v>4.4824324324324323</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="4:10">
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8">
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19">
         <f>SUM(G122,G134,G110,G98,G86,G74,G62,G50,G39,G27,G18)</f>
-        <v>145</v>
-      </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
     </row>
     <row r="140" spans="4:10">
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="P102:R102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="P103:R103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="D126:J126"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="I116:J116"/>
+  <mergeCells count="214">
     <mergeCell ref="D137:F138"/>
     <mergeCell ref="G137:J138"/>
     <mergeCell ref="D139:F140"/>
@@ -3453,6 +3272,196 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
@@ -3474,31 +3483,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J113">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J125">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 J19:J21 J28:J30 J87:J89 J75:J77 J63:J65 J51:J53 J40:J41">
@@ -3520,11 +3529,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:J138">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3536,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
@@ -3546,244 +3555,244 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9">
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16">
         <f>I18/G18</f>
         <v>16.590624999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>16.8</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>17.8</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>16.55</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>15</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16">
         <f>I27/G27</f>
-        <v>16.066666666666698</v>
+        <v>16.06666666666667</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="14" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
@@ -3792,19 +3801,19 @@
         <f>0.71*20</f>
         <v>14.2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f>G24*H24</f>
-        <v>42.6</v>
-      </c>
-      <c r="J24" s="12"/>
+        <v>42.599999999999994</v>
+      </c>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="14" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="5">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
@@ -3813,19 +3822,19 @@
         <f>0.93*20</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <f>G25*H25</f>
-        <v>55.8</v>
-      </c>
-      <c r="J25" s="12"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="14" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
@@ -3834,1759 +3843,1668 @@
         <f>0.77*20</f>
         <v>15.4</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <f>G26*H26</f>
         <v>46.2</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f>SUM(I24:I26)</f>
-        <v>144.6</v>
-      </c>
-      <c r="J27" s="13"/>
+        <v>144.60000000000002</v>
+      </c>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="10"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="11" t="str">
+      <c r="D33" s="14" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="5">
         <f>'EXPECTED RESULTS'!G33</f>
         <v>4</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="11" t="str">
+      <c r="D34" s="14" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="5">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="11" t="str">
+      <c r="D35" s="14" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="5">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="12"/>
+      <c r="J35" s="10"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="11" t="str">
+      <c r="D36" s="14" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="5">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="11" t="str">
+      <c r="D37" s="14" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5">
         <f>'EXPECTED RESULTS'!G37</f>
         <v>4</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="10"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="11" t="str">
+      <c r="D44" s="14" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
-        <v>Bible Doctrines</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+        <v>Operating systems</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="5">
         <f>'EXPECTED RESULTS'!G44</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="12">
+      <c r="I44" s="10">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="12"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="11" t="str">
+      <c r="D45" s="14" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
         <v>Academic English Writing</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="5">
         <f>'EXPECTED RESULTS'!G45</f>
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="12"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="11" t="str">
+      <c r="D46" s="14" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="5">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="12"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="11" t="str">
-        <f>'EXPECTED RESULTS'!D47</f>
-        <v>Health Plinciples</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="14" t="e">
+        <f>'EXPECTED RESULTS'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="5">
         <f>'EXPECTED RESULTS'!G47</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="12">
+      <c r="I47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="18" t="str">
-        <f>'EXPECTED RESULTS'!D48</f>
+      <c r="D48" s="7" t="str">
+        <f>'EXPECTED RESULTS'!D47</f>
         <v>Probalibility and Statistics</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48">
         <f>'EXPECTED RESULTS'!G48</f>
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="11" t="str">
-        <f>'EXPECTED RESULTS'!D49</f>
+      <c r="D49" s="14" t="str">
+        <f>'EXPECTED RESULTS'!D48</f>
         <v>Theory of computation</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="5">
         <f>'EXPECTED RESULTS'!G49</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="12">
+      <c r="I49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="13"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="10" t="str">
+      <c r="D51" s="8" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="9">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="11" t="str">
+      <c r="D56" s="14" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
-        <v>Requirements Engineering</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+        <v>Bible Dioctrines</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="5">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="12">
+      <c r="I56" s="10">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="12"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="11" t="str">
+      <c r="D57" s="14" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
-        <v>Intro to Linux</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+        <v>Web Design</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="5">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="12">
+      <c r="I57" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="12"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="11" t="str">
+      <c r="D58" s="14" t="str">
         <f>'EXPECTED RESULTS'!D58</f>
-        <v>Web Design</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+        <v>Requirements Engineering</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="5">
         <f>'EXPECTED RESULTS'!G58</f>
         <v>3</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="12">
+      <c r="I58" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="12">
+      <c r="I60" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="12">
+      <c r="I61" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
         <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="13">
+      <c r="I62" s="12">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="13"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="11" t="str">
+      <c r="D68" s="14" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
-        <v>DB Develeopment with PL/SQL</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+        <v>DB Development with PL/SQL</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="5">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="12">
+      <c r="I68" s="10">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="11" t="str">
+      <c r="D69" s="14" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
         <v>Object Oriented programming</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="5">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="12">
+      <c r="I69" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="12"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="11" t="str">
+      <c r="D70" s="14" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
         <v>Software project Management</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="5">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="12">
+      <c r="I70" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="12"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="11" t="str">
+      <c r="D71" s="14" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
-        <v>Management Info System</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+        <v>Spoftware Quality Assurance</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="5">
         <f>'EXPECTED RESULTS'!G71</f>
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="12">
+      <c r="I71" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="11" t="str">
+      <c r="D72" s="14" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
-        <v>Operating Systems</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+        <v>SoftwareModeling and design</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="5">
         <f>'EXPECTED RESULTS'!G72</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="12">
+      <c r="I72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="12">
+      <c r="I73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="12"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="13">
+      <c r="I74" s="12">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="13"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="9">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="9"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="11" t="str">
+      <c r="D80" s="14" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="5">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="12">
+      <c r="I80" s="10">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="12"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="11" t="str">
+      <c r="D81" s="14" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="5">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="12">
+      <c r="I81" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="12"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="11">
+      <c r="D82" s="14">
         <f>'EXPECTED RESULTS'!D82</f>
         <v>0</v>
       </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="5">
         <f>'EXPECTED RESULTS'!G82</f>
         <v>0</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="12">
+      <c r="I82" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="12"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="11">
+      <c r="D83" s="14">
         <f>'EXPECTED RESULTS'!D83</f>
         <v>0</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="5">
         <f>'EXPECTED RESULTS'!G83</f>
         <v>0</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="12">
+      <c r="I83" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="11">
+      <c r="D84" s="14">
         <f>'EXPECTED RESULTS'!D84</f>
         <v>0</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="5">
         <f>'EXPECTED RESULTS'!G84</f>
         <v>0</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="12">
+      <c r="I84" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="12">
+      <c r="I85" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="13">
+      <c r="I86" s="12">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="13"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="10" t="str">
+      <c r="D87" s="8" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="9">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="9"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="11" t="str">
+      <c r="D92" s="14" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="5">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="12">
+      <c r="I92" s="10">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="12"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="11" t="str">
+      <c r="D93" s="14" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="5">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="12">
+      <c r="I93" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="12"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="11" t="str">
+      <c r="D94" s="14" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="5">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="12">
+      <c r="I94" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="12"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="12">
+      <c r="I95" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="12">
+      <c r="I96" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="12">
+      <c r="I97" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="14"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="13">
+      <c r="I98" s="12">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="13"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="9">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="9"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="9"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="4:10" ht="26">
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="10"/>
+      <c r="J103" s="8"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="11" t="str">
+      <c r="D104" s="14" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="5">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="12">
+      <c r="I104" s="10">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="12"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="11" t="str">
+      <c r="D105" s="14" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="5">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="12">
+      <c r="I105" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="12"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="11" t="str">
+      <c r="D106" s="14" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="5">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="12">
+      <c r="I106" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="12"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="11" t="str">
+      <c r="D107" s="14" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="5">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="12">
+      <c r="I107" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="11" t="str">
+      <c r="D108" s="14" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="5">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="12">
+      <c r="I108" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="12">
+      <c r="I109" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="13">
+      <c r="I110" s="12">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="13"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="9">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="16">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="9"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="9"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="16"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="10"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="12">
+      <c r="I116" s="10">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="12"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="11" t="str">
+      <c r="D117" s="14" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="5">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="12">
+      <c r="I117" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="12"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="11" t="str">
+      <c r="D118" s="14" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="5">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="12">
+      <c r="I118" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="12"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="11" t="str">
+      <c r="D119" s="14" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="5">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="12">
+      <c r="I119" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="12"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="12">
+      <c r="I120" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="12"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="12">
+      <c r="I121" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="12"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="14"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="13">
+      <c r="I122" s="12">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="13"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="9">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="16">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="9"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="16"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="16"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="10"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="12">
+      <c r="I128" s="10">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="12"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="11" t="str">
+      <c r="D129" s="14" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="5">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="12">
+      <c r="I129" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="12"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="11" t="str">
+      <c r="D130" s="14" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="5">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="12">
+      <c r="I130" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="12"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="12">
+      <c r="I131" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="12"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="12">
+      <c r="I132" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="12"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="12">
+      <c r="I133" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="12"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="14"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="13">
+      <c r="I134" s="12">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="13"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
         <v>139</v>
       </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10">
+      <c r="H135" s="8"/>
+      <c r="I135" s="8">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
-        <v>410.04999999999995</v>
-      </c>
-      <c r="J135" s="10"/>
+        <v>410.05</v>
+      </c>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="7">
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18">
         <f>I135/G135</f>
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+        <v>2.95</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D87:I89"/>
+    <mergeCell ref="D99:I101"/>
+    <mergeCell ref="D111:I113"/>
+    <mergeCell ref="D123:I125"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="D137:F138"/>
+    <mergeCell ref="G137:J138"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
     <mergeCell ref="D8:I9"/>
     <mergeCell ref="D19:I21"/>
     <mergeCell ref="D28:I30"/>
@@ -5611,54 +5529,145 @@
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="I117:J117"/>
     <mergeCell ref="D118:F118"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D87:I89"/>
-    <mergeCell ref="D99:I101"/>
-    <mergeCell ref="D111:I113"/>
-    <mergeCell ref="D123:I125"/>
-    <mergeCell ref="D135:E136"/>
-    <mergeCell ref="D137:F138"/>
-    <mergeCell ref="G137:J138"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="D75:I77"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
@@ -5680,31 +5689,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J113">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J125">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 J19:J21 J28:J30 J87:J89 J75:J77 J63:J65 J51:J53 J40:J41">
@@ -5726,11 +5735,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:J138">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>11.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>11.9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>Zero Credits</t>
-  </si>
-  <si>
-    <t>Theory of computation</t>
   </si>
   <si>
     <t>Probalibility and Statistics</t>
@@ -502,36 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +506,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1388,587 +1385,587 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="16">
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10">
         <f>I18/G18</f>
         <v>14.018749999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="13">
         <f t="shared" ref="I13:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>14.9</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>14</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>14.8</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="12">
+      <c r="I18" s="14">
         <f>SUM(I12:I17)</f>
         <v>224.29999999999998</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="11" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="16">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10">
         <f>I27/G27</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>17</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="13">
         <f>G24*H24</f>
         <v>51</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>16.5</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="13">
         <f>G25*H25</f>
         <v>49.5</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="5">
         <v>16</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="13">
         <f>G26*H26</f>
         <v>48</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="12">
+      <c r="I27" s="14">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="16">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
         <f>I39/G39</f>
         <v>16.144444444444446</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="16"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="5">
         <v>4</v>
       </c>
       <c r="H33" s="5">
         <v>15</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>60</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="4:11">
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="5">
         <v>16.8</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="J34" s="10"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="5">
         <v>15.8</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>16</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="4:11">
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="5">
         <v>17</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="4:11">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="10">
+      <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="4:11">
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="12">
+      <c r="I39" s="14">
         <f>SUM(I33:I38)</f>
         <v>290.60000000000002</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="4:11" ht="15" customHeight="1">
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="16">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="16"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="4:11" ht="26">
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="5">
         <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="10">
+      <c r="I44" s="13">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="4:11">
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="10">
+      <c r="I45" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="10"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="4:11">
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="10">
+      <c r="I46" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="4:11">
       <c r="D47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -1976,1278 +1973,1468 @@
         <v>3</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="10">
+      <c r="I47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="5">
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="10">
+      <c r="I48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="10"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="4:10">
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="5">
         <v>2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="10">
+      <c r="I49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
         <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="12">
+      <c r="I50" s="14">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="16">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="16"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="16"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="5">
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="10">
+      <c r="I56" s="13">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="5">
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="10">
+      <c r="I57" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="5">
         <v>3</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="10">
+      <c r="I58" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="10">
+      <c r="I59" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="10">
+      <c r="I60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="10">
+      <c r="I61" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
         <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="12">
+      <c r="I62" s="14">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="16">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="10">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="16"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="16"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="D68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="5">
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="10">
+      <c r="I68" s="13">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="D69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="5">
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="10">
+      <c r="I69" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="D70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="5">
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="10">
+      <c r="I70" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="D72" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="5">
-        <v>3</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="10">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="5">
+        <v>3</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="4:10">
-      <c r="D72" s="14" t="s">
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="5">
-        <v>3</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="10">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="5">
+        <v>3</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="4:10">
-      <c r="D73" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="5">
-        <v>3</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
         <v>19</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="12">
+      <c r="I74" s="14">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="12"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="16">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="10">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="16"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="16"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="8"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="5">
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="10">
+      <c r="I80" s="13">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="5">
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="10">
+      <c r="I81" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="10">
+      <c r="I82" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="10">
+      <c r="I83" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="10">
+      <c r="I84" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="10">
+      <c r="I85" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="12">
+      <c r="I86" s="14">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="12"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="16">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="10">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="16"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="16"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="8"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="5">
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="10">
+      <c r="I92" s="13">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="5">
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="10">
+      <c r="I93" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="5">
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="10">
+      <c r="I94" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="13"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="10">
+      <c r="I95" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="10">
+      <c r="I96" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="4:17">
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="10">
+      <c r="I97" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="4:17">
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="11"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="12">
+      <c r="I98" s="14">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="12"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="4:17">
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="16">
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="10">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:17">
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="16"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" spans="4:17">
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="16"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="10"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
       <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="4:17">
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
       <c r="Q102" s="5"/>
     </row>
     <row r="103" spans="4:17" ht="26">
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="8"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
+      <c r="J103" s="11"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
       <c r="Q103" s="5"/>
     </row>
     <row r="104" spans="4:17">
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="5">
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="10">
+      <c r="I104" s="13">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="10"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="4:17">
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="5">
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="10">
+      <c r="I105" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="10"/>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="4:17">
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="5">
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="10">
+      <c r="I106" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="10"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="4:17">
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="5">
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="10">
+      <c r="I107" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="10"/>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="5">
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="10">
+      <c r="I108" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="10"/>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="4:17">
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="10">
+      <c r="I109" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="10"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="4:17">
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="11"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="12">
+      <c r="I110" s="14">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="4:17">
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="16">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="10">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:17">
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="16"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="16"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="8"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="D116" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="5">
         <v>3</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="I116" s="10">
+      <c r="I116" s="13">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="10"/>
+      <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="5">
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="10">
+      <c r="I117" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="10"/>
+      <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="5">
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="10">
+      <c r="I118" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="10"/>
+      <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="5">
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="10">
+      <c r="I119" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="10"/>
+      <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="10">
+      <c r="I120" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="10"/>
+      <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="10">
+      <c r="I121" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="10"/>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="11"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="12">
+      <c r="I122" s="14">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="12"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="16">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="10">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="16"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="16"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="8"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="5">
         <v>3</v>
       </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="10">
+      <c r="I128" s="13">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="10"/>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="5">
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="10">
+      <c r="I129" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="10"/>
+      <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="5">
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="10">
+      <c r="I130" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="10"/>
+      <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="10">
+      <c r="I131" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="10"/>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="10">
+      <c r="I132" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="10"/>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="10">
+      <c r="I133" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="10"/>
+      <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="11"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>13</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="12">
+      <c r="I134" s="14">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="12"/>
+      <c r="J134" s="14"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8">
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
         <v>148</v>
       </c>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8">
+      <c r="H135" s="11"/>
+      <c r="I135" s="11">
         <f>SUM(I110,I98,I86,I74,I62,I50,I39,I27,I122,I134,I18)</f>
         <v>663.4</v>
       </c>
-      <c r="J135" s="8"/>
+      <c r="J135" s="11"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="18">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="8">
         <f>I135/G135</f>
         <v>4.4824324324324323</v>
       </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
     </row>
     <row r="139" spans="4:10">
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9">
         <f>SUM(G122,G134,G110,G98,G86,G74,G62,G50,G39,G27,G18)</f>
         <v>148</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
     </row>
     <row r="140" spans="4:10">
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="214">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="I117:J117"/>
     <mergeCell ref="D137:F138"/>
     <mergeCell ref="G137:J138"/>
     <mergeCell ref="D139:F140"/>
@@ -3272,196 +3459,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="D126:J126"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
@@ -3555,244 +3552,244 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="16">
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10">
         <f>I18/G18</f>
         <v>16.590624999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>16.8</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>17.8</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>16.55</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>15</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="12">
+      <c r="I18" s="14">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="16">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10">
         <f>I27/G27</f>
         <v>16.06666666666667</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="12" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="5">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
@@ -3801,19 +3798,19 @@
         <f>0.71*20</f>
         <v>14.2</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="13">
         <f>G24*H24</f>
         <v>42.599999999999994</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="12" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="5">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
@@ -3822,19 +3819,19 @@
         <f>0.93*20</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="13">
         <f>G25*H25</f>
         <v>55.800000000000004</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="12" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="5">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
@@ -3843,1620 +3840,1807 @@
         <f>0.77*20</f>
         <v>15.4</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="13">
         <f>G26*H26</f>
         <v>46.2</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="12">
+      <c r="I27" s="14">
         <f>SUM(I24:I26)</f>
         <v>144.60000000000002</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="16">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="16"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="12" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="5">
         <f>'EXPECTED RESULTS'!G33</f>
         <v>4</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="10">
+      <c r="I33" s="13">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="10"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="12" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="5">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="10">
+      <c r="I34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="10"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="14" t="str">
+      <c r="D35" s="12" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="5">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="10">
+      <c r="I35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="13"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="14" t="str">
+      <c r="D36" s="12" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="5">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="10">
+      <c r="I36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="14" t="str">
+      <c r="D37" s="12" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="5">
         <f>'EXPECTED RESULTS'!G37</f>
         <v>4</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="10">
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="10"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="10">
+      <c r="I38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="12">
+      <c r="I39" s="14">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="16">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="16"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="14" t="str">
+      <c r="D44" s="12" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
         <v>Operating systems</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="5">
         <f>'EXPECTED RESULTS'!G44</f>
         <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="10">
+      <c r="I44" s="13">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="14" t="str">
+      <c r="D45" s="12" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
         <v>Academic English Writing</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="5">
         <f>'EXPECTED RESULTS'!G45</f>
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="10">
+      <c r="I45" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="10"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="14" t="str">
+      <c r="D46" s="12" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="5">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="10">
+      <c r="I46" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="14" t="e">
+      <c r="D47" s="12" t="e">
         <f>'EXPECTED RESULTS'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="5">
         <f>'EXPECTED RESULTS'!G47</f>
         <v>3</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="10">
+      <c r="I47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="7" t="str">
+      <c r="D48" s="19" t="str">
         <f>'EXPECTED RESULTS'!D47</f>
         <v>Probalibility and Statistics</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
       <c r="G48">
         <f>'EXPECTED RESULTS'!G48</f>
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="10">
+      <c r="I48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="10"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="14" t="str">
+      <c r="D49" s="12" t="str">
         <f>'EXPECTED RESULTS'!D48</f>
-        <v>Theory of computation</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+        <v>Requirements Engineering</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="5">
         <f>'EXPECTED RESULTS'!G49</f>
         <v>2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="10">
+      <c r="I49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
         <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="12">
+      <c r="I50" s="14">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="8" t="str">
+      <c r="D51" s="11" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="16">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="16"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="16"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="14" t="str">
+      <c r="D56" s="12" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
         <v>Bible Dioctrines</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="5">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="10">
+      <c r="I56" s="13">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="14" t="str">
+      <c r="D57" s="12" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
         <v>Web Design</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="5">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="10">
+      <c r="I57" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="14" t="str">
+      <c r="D58" s="12" t="str">
         <f>'EXPECTED RESULTS'!D58</f>
         <v>Requirements Engineering</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="5">
         <f>'EXPECTED RESULTS'!G58</f>
         <v>3</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="10">
+      <c r="I58" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="10">
+      <c r="I59" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="10">
+      <c r="I60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="10">
+      <c r="I61" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
         <v>9</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="12">
+      <c r="I62" s="14">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="16">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="10">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="16"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="16"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="14" t="str">
+      <c r="D68" s="12" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
         <v>DB Development with PL/SQL</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="5">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="10">
+      <c r="I68" s="13">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="14" t="str">
+      <c r="D69" s="12" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
         <v>Object Oriented programming</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="5">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="10">
+      <c r="I69" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="14" t="str">
+      <c r="D70" s="12" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
         <v>Software project Management</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="5">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="10">
+      <c r="I70" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="14" t="str">
+      <c r="D71" s="12" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
         <v>Spoftware Quality Assurance</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="5">
         <f>'EXPECTED RESULTS'!G71</f>
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="10">
+      <c r="I71" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="10"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="14" t="str">
+      <c r="D72" s="12" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
         <v>SoftwareModeling and design</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="5">
         <f>'EXPECTED RESULTS'!G72</f>
         <v>3</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="10">
+      <c r="I72" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="10"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="10">
+      <c r="I73" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="12">
+      <c r="I74" s="14">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="12"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="16">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="10">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="16"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="16"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="8"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="14" t="str">
+      <c r="D80" s="12" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="5">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="10">
+      <c r="I80" s="13">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="14" t="str">
+      <c r="D81" s="12" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="5">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="10">
+      <c r="I81" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="14">
+      <c r="D82" s="12">
         <f>'EXPECTED RESULTS'!D82</f>
         <v>0</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="5">
         <f>'EXPECTED RESULTS'!G82</f>
         <v>0</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="10">
+      <c r="I82" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="14">
+      <c r="D83" s="12">
         <f>'EXPECTED RESULTS'!D83</f>
         <v>0</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="5">
         <f>'EXPECTED RESULTS'!G83</f>
         <v>0</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="10">
+      <c r="I83" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="14">
+      <c r="D84" s="12">
         <f>'EXPECTED RESULTS'!D84</f>
         <v>0</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="5">
         <f>'EXPECTED RESULTS'!G84</f>
         <v>0</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="10">
+      <c r="I84" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="10">
+      <c r="I85" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="12">
+      <c r="I86" s="14">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="12"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="8" t="str">
+      <c r="D87" s="11" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="16">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="10">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="16"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="16"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="8"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="14" t="str">
+      <c r="D92" s="12" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="5">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="10">
+      <c r="I92" s="13">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="14" t="str">
+      <c r="D93" s="12" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="5">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="10">
+      <c r="I93" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="14" t="str">
+      <c r="D94" s="12" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="5">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="10">
+      <c r="I94" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="13"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="10">
+      <c r="I95" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="10">
+      <c r="I96" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="10">
+      <c r="I97" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="11"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="15"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="12">
+      <c r="I98" s="14">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="12"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="16">
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="10">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="16"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="16"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
     </row>
     <row r="103" spans="4:10" ht="26">
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="8"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="14" t="str">
+      <c r="D104" s="12" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="5">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="10">
+      <c r="I104" s="13">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="10"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="14" t="str">
+      <c r="D105" s="12" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="5">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="10">
+      <c r="I105" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="10"/>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="14" t="str">
+      <c r="D106" s="12" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="5">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="10">
+      <c r="I106" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="10"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="14" t="str">
+      <c r="D107" s="12" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="5">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="10">
+      <c r="I107" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="10"/>
+      <c r="J107" s="13"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="14" t="str">
+      <c r="D108" s="12" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="5">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="10">
+      <c r="I108" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="10"/>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="10">
+      <c r="I109" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="10"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="11"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="12">
+      <c r="I110" s="14">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="16">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="10">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="16"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="16"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="8"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="10">
+      <c r="I116" s="13">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="10"/>
+      <c r="J116" s="13"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="14" t="str">
+      <c r="D117" s="12" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="5">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="10">
+      <c r="I117" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="10"/>
+      <c r="J117" s="13"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="14" t="str">
+      <c r="D118" s="12" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="5">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="10">
+      <c r="I118" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="10"/>
+      <c r="J118" s="13"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="14" t="str">
+      <c r="D119" s="12" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="5">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="10">
+      <c r="I119" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="10"/>
+      <c r="J119" s="13"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="10">
+      <c r="I120" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="10"/>
+      <c r="J120" s="13"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="10">
+      <c r="I121" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="10"/>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="11"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="12">
+      <c r="I122" s="14">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="12"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="16">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="10">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="16"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="16"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="8"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="10">
+      <c r="I128" s="13">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="10"/>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="14" t="str">
+      <c r="D129" s="12" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="5">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="10">
+      <c r="I129" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="10"/>
+      <c r="J129" s="13"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="14" t="str">
+      <c r="D130" s="12" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="5">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="10">
+      <c r="I130" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="10"/>
+      <c r="J130" s="13"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="10">
+      <c r="I131" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="10"/>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="10">
+      <c r="I132" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="10"/>
+      <c r="J132" s="13"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="10">
+      <c r="I133" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="10"/>
+      <c r="J133" s="13"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="11"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="12">
+      <c r="I134" s="14">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="12"/>
+      <c r="J134" s="14"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8">
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
         <v>139</v>
       </c>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8">
+      <c r="H135" s="11"/>
+      <c r="I135" s="11">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
         <v>410.05</v>
       </c>
-      <c r="J135" s="8"/>
+      <c r="J135" s="11"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="18">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="8">
         <f>I135/G135</f>
         <v>2.95</v>
       </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="D75:I77"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="D19:I21"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="D51:I53"/>
+    <mergeCell ref="D63:I65"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
     <mergeCell ref="D87:I89"/>
     <mergeCell ref="D99:I101"/>
     <mergeCell ref="D111:I113"/>
@@ -5481,193 +5665,6 @@
     <mergeCell ref="I133:J133"/>
     <mergeCell ref="I118:J118"/>
     <mergeCell ref="D119:F119"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="D19:I21"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="D51:I53"/>
-    <mergeCell ref="D63:I65"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="D126:J126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">

--- a/auca/grades/ExpectedGrade.xlsx
+++ b/auca/grades/ExpectedGrade.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
   <si>
     <t>SEMESTER-1</t>
   </si>
@@ -499,6 +499,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,36 +536,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1385,583 +1385,583 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10">
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16">
         <f>I18/G18</f>
         <v>14.018749999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <f>G12*H12</f>
         <v>36</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <f t="shared" ref="I13:I17" si="0">G13*H13</f>
         <v>30</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>14.9</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>44.7</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>14</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>14.8</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f>SUM(I12:I17)</f>
         <v>224.29999999999998</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="8" t="str">
         <f>'FINAL RESULT'!D19</f>
         <v>SEMESTER-2-SUMMER</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16">
         <f>I27/G27</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>17</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="10">
         <f>G24*H24</f>
         <v>51</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>16.5</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <f>G25*H25</f>
         <v>49.5</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="5">
         <v>16</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="10">
         <f>G26*H26</f>
         <v>48</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <f>SUM(I24:I26)</f>
         <v>148.5</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16">
         <f>I39/G39</f>
         <v>16.144444444444446</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="5">
         <v>4</v>
       </c>
       <c r="H33" s="5">
         <v>15</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="10">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>60</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="4:11">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34" s="5">
         <v>16.8</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="5">
         <v>3</v>
       </c>
       <c r="H35" s="5">
         <v>15.8</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="5">
         <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>16</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J36" s="13"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="4:11">
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5">
         <v>4</v>
       </c>
       <c r="H37" s="5">
         <v>17</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="4:11">
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="13">
+      <c r="I38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="13"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="4:11">
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="14">
+      <c r="I39" s="12">
         <f>SUM(I33:I38)</f>
         <v>290.60000000000002</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="4:11" ht="15" customHeight="1">
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="10">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="4:11" ht="26">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="11"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="5">
         <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="13">
+      <c r="I44" s="10">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="13"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="4:11">
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="13">
+      <c r="I45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="13"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="4:11">
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="13">
+      <c r="I46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="13"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="4:11">
       <c r="D47" s="6" t="s">
@@ -1973,27 +1973,27 @@
         <v>3</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="13">
+      <c r="I47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="13"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="5">
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="13">
+      <c r="I48" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="13"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="4:10">
       <c r="D49" t="s">
@@ -2003,1414 +2003,1268 @@
         <v>2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="13">
+      <c r="I49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="13"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
         <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="14">
+      <c r="I50" s="12">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="14"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="10">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="11"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="5">
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="13">
+      <c r="I56" s="10">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="13"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="5">
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="13">
+      <c r="I57" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="13"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="5">
-        <v>3</v>
-      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="13">
+      <c r="I58" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="13"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="13">
+      <c r="I59" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="13"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="13">
+      <c r="I60" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="13">
+      <c r="I61" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="13"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="14">
+      <c r="I62" s="12">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="14"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="10">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="11"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="5">
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="13">
+      <c r="I68" s="10">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="13"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="5">
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="13">
+      <c r="I69" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="13"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="5">
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="13">
+      <c r="I70" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="13"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="5">
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="13">
+      <c r="I71" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="13"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="5">
         <v>3</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="13">
+      <c r="I72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="13"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="5">
         <v>3</v>
       </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="13">
+      <c r="I73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="13"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
         <v>19</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="14">
+      <c r="I74" s="12">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="14"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="10">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="10"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="11"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="5">
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="13">
+      <c r="I80" s="10">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="13"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="5">
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="13">
+      <c r="I81" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="13"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="13">
+      <c r="I82" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="13"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="13">
+      <c r="I83" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="13"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="13">
+      <c r="I84" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="13"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="13">
+      <c r="I85" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="13"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="14">
+      <c r="I86" s="12">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="14"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="10">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="10"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="10"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="11"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="5">
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="13">
+      <c r="I92" s="10">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="13"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="5">
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="13">
+      <c r="I93" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="13"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="5">
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="13">
+      <c r="I94" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="13"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="13">
+      <c r="I95" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="13"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="13">
+      <c r="I96" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="13"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="4:17">
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="13">
+      <c r="I97" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="13"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="4:17">
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="14">
+      <c r="I98" s="12">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="14"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" spans="4:17">
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="10">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:17">
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="10"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
     </row>
     <row r="101" spans="4:17">
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="10"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
       <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="4:17">
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
       <c r="Q102" s="5"/>
     </row>
     <row r="103" spans="4:17" ht="26">
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="11"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
+      <c r="J103" s="8"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
       <c r="Q103" s="5"/>
     </row>
     <row r="104" spans="4:17">
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="5">
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="13">
+      <c r="I104" s="10">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="13"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="4:17">
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="5">
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="13">
+      <c r="I105" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="13"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="4:17">
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="5">
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="13">
+      <c r="I106" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="13"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="4:17">
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="5">
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="13">
+      <c r="I107" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="13"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="4:17">
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="5">
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="13">
+      <c r="I108" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="13"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" spans="4:17">
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="13">
+      <c r="I109" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="13"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="4:17">
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="15"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="14">
+      <c r="I110" s="12">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="14"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="4:17">
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="10">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="16">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:17">
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="10"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="10"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="16"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="11"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="5">
         <v>3</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="I116" s="13">
+      <c r="I116" s="10">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="13"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="5">
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="13">
+      <c r="I117" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="13"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="5">
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="13">
+      <c r="I118" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="13"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="5">
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="13">
+      <c r="I119" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="13"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="13">
+      <c r="I120" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="13"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="13">
+      <c r="I121" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="13"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="15"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>14</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="14">
+      <c r="I122" s="12">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="14"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="10">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="16">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="10"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="16"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="10"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="16"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="11"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="5">
         <v>3</v>
       </c>
       <c r="H128" s="5"/>
-      <c r="I128" s="13">
+      <c r="I128" s="10">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="13"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="5">
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="13">
+      <c r="I129" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="13"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="5">
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="13">
+      <c r="I130" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="13"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="13">
+      <c r="I131" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="13"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="13">
+      <c r="I132" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="13"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="13">
+      <c r="I133" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="13"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="15"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>13</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="14">
+      <c r="I134" s="12">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="14"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8">
         <f>SUM(G110,G86,G98,G74,G62,G50,G39,G27,G122,G134,G18)</f>
-        <v>148</v>
-      </c>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11">
+        <v>145</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8">
         <f>SUM(I110,I98,I86,I74,I62,I50,I39,I27,I122,I134,I18)</f>
         <v>663.4</v>
       </c>
-      <c r="J135" s="11"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="8">
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18">
         <f>I135/G135</f>
-        <v>4.4824324324324323</v>
-      </c>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+        <v>4.5751724137931031</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="4:10">
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9">
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19">
         <f>SUM(G122,G134,G110,G98,G86,G74,G62,G50,G39,G27,G18)</f>
-        <v>148</v>
-      </c>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
     </row>
     <row r="140" spans="4:10">
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D137:F138"/>
+    <mergeCell ref="G137:J138"/>
+    <mergeCell ref="D139:F140"/>
+    <mergeCell ref="G139:J140"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="D19:I21"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="D51:I53"/>
+    <mergeCell ref="D63:I65"/>
+    <mergeCell ref="D75:I77"/>
+    <mergeCell ref="D87:I89"/>
+    <mergeCell ref="D99:I101"/>
+    <mergeCell ref="D111:I113"/>
+    <mergeCell ref="D123:I125"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J51:J53"/>
     <mergeCell ref="J87:J89"/>
     <mergeCell ref="J99:J101"/>
     <mergeCell ref="D132:F132"/>
@@ -3435,30 +3289,172 @@
     <mergeCell ref="I116:J116"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="I117:J117"/>
-    <mergeCell ref="D137:F138"/>
-    <mergeCell ref="G137:J138"/>
-    <mergeCell ref="D139:F140"/>
-    <mergeCell ref="G139:J140"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="D19:I21"/>
-    <mergeCell ref="D28:I30"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="D51:I53"/>
-    <mergeCell ref="D63:I65"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D87:I89"/>
-    <mergeCell ref="D99:I101"/>
-    <mergeCell ref="D111:I113"/>
-    <mergeCell ref="D123:I125"/>
-    <mergeCell ref="D135:E136"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
@@ -3552,244 +3548,244 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:10" ht="15" customHeight="1">
-      <c r="D8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10">
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16">
         <f>I18/G18</f>
         <v>16.590624999999999</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="4:10" ht="26">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>16.8</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <f t="shared" ref="I12:I17" si="0">G12*H12</f>
         <v>50.4</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>17.8</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>16.55</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>49.65</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>15</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="4">
         <f>SUM(G12:G17)</f>
         <v>16</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f>SUM(I12:I17)</f>
         <v>265.45</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16">
         <f>I27/G27</f>
         <v>16.06666666666667</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="4:10" ht="26">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="14" t="str">
         <f>'EXPECTED RESULTS'!D24</f>
         <v>DBMS</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5">
         <f>'EXPECTED RESULTS'!G24</f>
         <v>3</v>
@@ -3798,19 +3794,19 @@
         <f>0.71*20</f>
         <v>14.2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="10">
         <f>G24*H24</f>
         <v>42.599999999999994</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="14" t="str">
         <f>'EXPECTED RESULTS'!D25</f>
         <v>Computer Maintenance</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="5">
         <f>'EXPECTED RESULTS'!G25</f>
         <v>3</v>
@@ -3819,19 +3815,19 @@
         <f>0.93*20</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <f>G25*H25</f>
         <v>55.800000000000004</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="14" t="str">
         <f>'EXPECTED RESULTS'!D26</f>
         <v>Digital computer Fundamentals</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5">
         <f>'EXPECTED RESULTS'!G26</f>
         <v>3</v>
@@ -3840,1759 +3836,1668 @@
         <f>0.77*20</f>
         <v>15.4</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="10">
         <f>G26*H26</f>
         <v>46.2</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>9</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <f>SUM(I24:I26)</f>
         <v>144.60000000000002</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16">
         <f>I39/G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="4:10" ht="26">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="4:13">
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="14" t="str">
         <f>'EXPECTED RESULTS'!D33</f>
         <v>Multvaliable Calculus and ODE</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="5">
         <f>'EXPECTED RESULTS'!G33</f>
         <v>4</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="13">
+      <c r="I33" s="10">
         <f t="shared" ref="I33:I38" si="1">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="14" t="str">
         <f>'EXPECTED RESULTS'!D34</f>
         <v>Intro to Computer Programming</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="5">
         <f>'EXPECTED RESULTS'!G34</f>
         <v>4</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="13">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="14" t="str">
         <f>'EXPECTED RESULTS'!D35</f>
         <v>Software Engineering</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="5">
         <f>'EXPECTED RESULTS'!G35</f>
         <v>3</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="13">
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="10"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="14" t="str">
         <f>'EXPECTED RESULTS'!D36</f>
         <v>Descrptive Statistics</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="5">
         <f>'EXPECTED RESULTS'!G36</f>
         <v>3</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="13">
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="13"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="12" t="str">
+      <c r="D37" s="14" t="str">
         <f>'EXPECTED RESULTS'!D37</f>
         <v>Computer Networks</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5">
         <f>'EXPECTED RESULTS'!G37</f>
         <v>4</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="13">
+      <c r="I37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="13">
+      <c r="I38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="13"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="4">
         <f>SUM(G33:G38)</f>
         <v>18</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="14">
+      <c r="I39" s="12">
         <f>SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="4:13" ht="15" customHeight="1">
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="10">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16">
         <f>I50/G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="4:13" ht="26">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="11"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="12" t="str">
+      <c r="D44" s="14" t="str">
         <f>'EXPECTED RESULTS'!D44</f>
         <v>Operating systems</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="5">
         <f>'EXPECTED RESULTS'!G44</f>
         <v>4</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="13">
+      <c r="I44" s="10">
         <f t="shared" ref="I44:I49" si="2">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="13"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="12" t="str">
+      <c r="D45" s="14" t="str">
         <f>'EXPECTED RESULTS'!D45</f>
         <v>Academic English Writing</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="5">
         <f>'EXPECTED RESULTS'!G45</f>
         <v>3</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="13">
+      <c r="I45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="13"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="12" t="str">
+      <c r="D46" s="14" t="str">
         <f>'EXPECTED RESULTS'!D46</f>
         <v>Programming with C</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="5">
         <f>'EXPECTED RESULTS'!G46</f>
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="13">
+      <c r="I46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46" s="13"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="12" t="e">
+      <c r="D47" s="14" t="e">
         <f>'EXPECTED RESULTS'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="5">
         <f>'EXPECTED RESULTS'!G47</f>
         <v>3</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="13">
+      <c r="I47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47" s="13"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="19" t="str">
+      <c r="D48" s="7" t="str">
         <f>'EXPECTED RESULTS'!D47</f>
         <v>Probalibility and Statistics</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48">
         <f>'EXPECTED RESULTS'!G48</f>
         <v>3</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="13">
+      <c r="I48" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48" s="13"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="4:10">
-      <c r="D49" s="12" t="str">
+      <c r="D49" s="14" t="str">
         <f>'EXPECTED RESULTS'!D48</f>
         <v>Requirements Engineering</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="5">
         <f>'EXPECTED RESULTS'!G49</f>
         <v>2</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="13">
+      <c r="I49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="13"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="4:10">
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="4">
         <f>SUM(G44:G49)</f>
         <v>19</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="14">
+      <c r="I50" s="12">
         <f>SUM(I44:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="14"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="4:10" ht="15" customHeight="1">
-      <c r="D51" s="11" t="str">
+      <c r="D51" s="8" t="str">
         <f>'EXPECTED RESULTS'!D51</f>
         <v>SEMESTER-5-SUMMER</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="10">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16">
         <f>I62/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:10">
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="4:10">
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="4:10">
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="4:10" ht="26">
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="11"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="4:10">
-      <c r="D56" s="12" t="str">
+      <c r="D56" s="14" t="str">
         <f>'EXPECTED RESULTS'!D56</f>
         <v>Bible Dioctrines</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="5">
         <f>'EXPECTED RESULTS'!G56</f>
         <v>3</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="13">
+      <c r="I56" s="10">
         <f t="shared" ref="I56:I61" si="3">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="13"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="4:10">
-      <c r="D57" s="12" t="str">
+      <c r="D57" s="14" t="str">
         <f>'EXPECTED RESULTS'!D57</f>
         <v>Web Design</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="5">
         <f>'EXPECTED RESULTS'!G57</f>
         <v>3</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="13">
+      <c r="I57" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="13"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="4:10">
-      <c r="D58" s="12" t="str">
+      <c r="D58" s="14">
         <f>'EXPECTED RESULTS'!D58</f>
-        <v>Requirements Engineering</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="5">
         <f>'EXPECTED RESULTS'!G58</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="13">
+      <c r="I58" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="13"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="4:10">
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="13">
+      <c r="I59" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="13"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="4:10">
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="13">
+      <c r="I60" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="4:10">
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="13">
+      <c r="I61" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="13"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="4:10">
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="4">
         <f>SUM(G56:G61)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="14">
+      <c r="I62" s="12">
         <f>SUM(I56:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="14"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="4:10" ht="15" customHeight="1">
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="10">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="16">
         <f>I74/G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:10">
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="4:10">
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="4:10">
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="4:10" ht="26">
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="11"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="4:10">
-      <c r="D68" s="12" t="str">
+      <c r="D68" s="14" t="str">
         <f>'EXPECTED RESULTS'!D68</f>
         <v>DB Development with PL/SQL</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="5">
         <f>'EXPECTED RESULTS'!G68</f>
         <v>3</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="13">
+      <c r="I68" s="10">
         <f t="shared" ref="I68:I73" si="4">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="13"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="4:10">
-      <c r="D69" s="12" t="str">
+      <c r="D69" s="14" t="str">
         <f>'EXPECTED RESULTS'!D69</f>
         <v>Object Oriented programming</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="5">
         <f>'EXPECTED RESULTS'!G69</f>
         <v>4</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="13">
+      <c r="I69" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J69" s="13"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="4:10">
-      <c r="D70" s="12" t="str">
+      <c r="D70" s="14" t="str">
         <f>'EXPECTED RESULTS'!D70</f>
         <v>Software project Management</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="5">
         <f>'EXPECTED RESULTS'!G70</f>
         <v>3</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="13">
+      <c r="I70" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J70" s="13"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="4:10">
-      <c r="D71" s="12" t="str">
+      <c r="D71" s="14" t="str">
         <f>'EXPECTED RESULTS'!D71</f>
         <v>Spoftware Quality Assurance</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="5">
         <f>'EXPECTED RESULTS'!G71</f>
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="13">
+      <c r="I71" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J71" s="13"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="4:10">
-      <c r="D72" s="12" t="str">
+      <c r="D72" s="14" t="str">
         <f>'EXPECTED RESULTS'!D72</f>
         <v>SoftwareModeling and design</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="5">
         <f>'EXPECTED RESULTS'!G72</f>
         <v>3</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="13">
+      <c r="I72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J72" s="13"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="4:10">
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="13">
+      <c r="I73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J73" s="13"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="4:10">
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="4">
         <f>SUM(G68:G73)</f>
         <v>16</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="I74" s="14">
+      <c r="I74" s="12">
         <f>SUM(I68:I73)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="14"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" spans="4:10" ht="15" customHeight="1">
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="10">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16">
         <f>I86/G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10">
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="10"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="4:10">
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="4:10">
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="4:10" ht="26">
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J79" s="11"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="4:10">
-      <c r="D80" s="12" t="str">
+      <c r="D80" s="14" t="str">
         <f>'EXPECTED RESULTS'!D80</f>
         <v>English Proficiency II</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="5">
         <f>'EXPECTED RESULTS'!G80</f>
         <v>3</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="13">
+      <c r="I80" s="10">
         <f t="shared" ref="I80:I85" si="5">G80*H80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="13"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="4:10">
-      <c r="D81" s="12" t="str">
+      <c r="D81" s="14" t="str">
         <f>'EXPECTED RESULTS'!D81</f>
         <v>Java Programming</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="5">
         <f>'EXPECTED RESULTS'!G81</f>
         <v>4</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="13">
+      <c r="I81" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="13"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="4:10">
-      <c r="D82" s="12">
+      <c r="D82" s="14">
         <f>'EXPECTED RESULTS'!D82</f>
         <v>0</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="5">
         <f>'EXPECTED RESULTS'!G82</f>
         <v>0</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="13">
+      <c r="I82" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="13"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="4:10">
-      <c r="D83" s="12">
+      <c r="D83" s="14">
         <f>'EXPECTED RESULTS'!D83</f>
         <v>0</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="5">
         <f>'EXPECTED RESULTS'!G83</f>
         <v>0</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="13">
+      <c r="I83" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="13"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="4:10">
-      <c r="D84" s="12">
+      <c r="D84" s="14">
         <f>'EXPECTED RESULTS'!D84</f>
         <v>0</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="5">
         <f>'EXPECTED RESULTS'!G84</f>
         <v>0</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="13">
+      <c r="I84" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="13"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="4:10">
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="13">
+      <c r="I85" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="13"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="4:10">
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="4">
         <f>SUM(G80:G85)</f>
         <v>7</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="14">
+      <c r="I86" s="12">
         <f>SUM(I80:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="14"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="4:10" ht="15" customHeight="1">
-      <c r="D87" s="11" t="str">
+      <c r="D87" s="8" t="str">
         <f>'EXPECTED RESULTS'!D87</f>
         <v>SEMESTER-8-SUMMER</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="10">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="16">
         <f>I98/G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10">
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="10"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="4:10">
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="10"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
     </row>
     <row r="90" spans="4:10">
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="4:10" ht="26">
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="11"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="4:10">
-      <c r="D92" s="12" t="str">
+      <c r="D92" s="14" t="str">
         <f>'EXPECTED RESULTS'!D92</f>
         <v>Big Data</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="5">
         <f>'EXPECTED RESULTS'!G92</f>
         <v>3</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="13">
+      <c r="I92" s="10">
         <f t="shared" ref="I92:I97" si="6">G92*H92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="13"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="4:10">
-      <c r="D93" s="12" t="str">
+      <c r="D93" s="14" t="str">
         <f>'EXPECTED RESULTS'!D93</f>
         <v>Operating systems</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="5">
         <f>'EXPECTED RESULTS'!G93</f>
         <v>4</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="13">
+      <c r="I93" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J93" s="13"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="4:10">
-      <c r="D94" s="12" t="str">
+      <c r="D94" s="14" t="str">
         <f>'EXPECTED RESULTS'!D94</f>
         <v>Best Progr.Practice Design Patterns</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="5">
         <f>'EXPECTED RESULTS'!G94</f>
         <v>3</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="13">
+      <c r="I94" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J94" s="13"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="4:10">
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="13">
+      <c r="I95" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J95" s="13"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="4:10">
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="13">
+      <c r="I96" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J96" s="13"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="4:10">
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="13">
+      <c r="I97" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J97" s="13"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="4:10">
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="4">
         <f>SUM(G92:G97)</f>
         <v>10</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="14">
+      <c r="I98" s="12">
         <f>SUM(I92:I97)</f>
         <v>0</v>
       </c>
-      <c r="J98" s="14"/>
+      <c r="J98" s="12"/>
     </row>
     <row r="99" spans="4:10">
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="10">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16">
         <f>I110/G110</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10">
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="10"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
     </row>
     <row r="101" spans="4:10">
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="10"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="4:10" ht="26">
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J103" s="11"/>
+      <c r="J103" s="8"/>
     </row>
     <row r="104" spans="4:10">
-      <c r="D104" s="12" t="str">
+      <c r="D104" s="14" t="str">
         <f>'EXPECTED RESULTS'!D104</f>
         <v>Introduction to linux</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="5">
         <f>'EXPECTED RESULTS'!G104</f>
         <v>3</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="13">
+      <c r="I104" s="10">
         <f t="shared" ref="I104:I109" si="7">G104*H104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="13"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="4:10">
-      <c r="D105" s="12" t="str">
+      <c r="D105" s="14" t="str">
         <f>'EXPECTED RESULTS'!D105</f>
         <v>Philosophy Science and Religion</v>
       </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="5">
         <f>'EXPECTED RESULTS'!G105</f>
         <v>2</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="13">
+      <c r="I105" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="13"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="4:10">
-      <c r="D106" s="12" t="str">
+      <c r="D106" s="14" t="str">
         <f>'EXPECTED RESULTS'!D106</f>
         <v>Software Security</v>
       </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="5">
         <f>'EXPECTED RESULTS'!G106</f>
         <v>3</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="13">
+      <c r="I106" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="13"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="4:10">
-      <c r="D107" s="12" t="str">
+      <c r="D107" s="14" t="str">
         <f>'EXPECTED RESULTS'!D107</f>
         <v>Introduction to Big Data</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="5">
         <f>'EXPECTED RESULTS'!G107</f>
         <v>3</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="13">
+      <c r="I107" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="13"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="12" t="str">
+      <c r="D108" s="14" t="str">
         <f>'EXPECTED RESULTS'!D108</f>
         <v>Software Quality Assurance</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="5">
         <f>'EXPECTED RESULTS'!G108</f>
         <v>3</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="13">
+      <c r="I108" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="13"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" spans="4:10">
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="13">
+      <c r="I109" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="13"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="4:10">
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="15"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="4">
         <f>SUM(G104:G109)</f>
         <v>14</v>
       </c>
       <c r="H110" s="4"/>
-      <c r="I110" s="14">
+      <c r="I110" s="12">
         <f>SUM(I104:I109)</f>
         <v>0</v>
       </c>
-      <c r="J110" s="14"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" spans="4:10">
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="10">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="16">
         <f>I122/G122</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10">
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="10"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" spans="4:10">
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="10"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="16"/>
     </row>
     <row r="114" spans="4:10">
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="4:10" ht="26">
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J115" s="11"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" spans="4:10">
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="13">
+      <c r="I116" s="10">
         <f t="shared" ref="I116:I121" si="8">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="13"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="4:10">
-      <c r="D117" s="12" t="str">
+      <c r="D117" s="14" t="str">
         <f>'EXPECTED RESULTS'!D117</f>
         <v>Web Technology and Internet</v>
       </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="5">
         <f>'EXPECTED RESULTS'!G117</f>
         <v>4</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="13">
+      <c r="I117" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J117" s="13"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="4:10">
-      <c r="D118" s="12" t="str">
+      <c r="D118" s="14" t="str">
         <f>'EXPECTED RESULTS'!D118</f>
         <v>Mobile Programing</v>
       </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="5">
         <f>'EXPECTED RESULTS'!G118</f>
         <v>4</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="13">
+      <c r="I118" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J118" s="13"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="4:10">
-      <c r="D119" s="12" t="str">
+      <c r="D119" s="14" t="str">
         <f>'EXPECTED RESULTS'!D119</f>
         <v>Probability and statistic &amp; Reliability</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="5">
         <f>'EXPECTED RESULTS'!G119</f>
         <v>3</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="13">
+      <c r="I119" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J119" s="13"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="4:10">
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="13">
+      <c r="I120" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J120" s="13"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="4:10">
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="13">
+      <c r="I121" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J121" s="13"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="4:10">
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="15"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="4">
         <f>SUM(G116:G121)</f>
         <v>11</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="14">
+      <c r="I122" s="12">
         <f>SUM(I116:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="14"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="4:10">
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="10">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="16">
         <f>I134/G134</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10">
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="10"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="16"/>
     </row>
     <row r="125" spans="4:10">
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="10"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="16"/>
     </row>
     <row r="126" spans="4:10">
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="4:10" ht="26">
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J127" s="11"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" spans="4:10">
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="13">
+      <c r="I128" s="10">
         <f t="shared" ref="I128:I133" si="9">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="13"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" spans="4:10">
-      <c r="D129" s="12" t="str">
+      <c r="D129" s="14" t="str">
         <f>'EXPECTED RESULTS'!D129</f>
         <v>Internship</v>
       </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="5">
         <f>'EXPECTED RESULTS'!G129</f>
         <v>4</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="I129" s="13">
+      <c r="I129" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J129" s="13"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" spans="4:10">
-      <c r="D130" s="12" t="str">
+      <c r="D130" s="14" t="str">
         <f>'EXPECTED RESULTS'!D130</f>
         <v>Final Year Project</v>
       </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="5">
         <f>'EXPECTED RESULTS'!G130</f>
         <v>6</v>
       </c>
       <c r="H130" s="5"/>
-      <c r="I130" s="13">
+      <c r="I130" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J130" s="13"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" spans="4:10">
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="13">
+      <c r="I131" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J131" s="13"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" spans="4:10">
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="13">
+      <c r="I132" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J132" s="13"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" spans="4:10">
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="13">
+      <c r="I133" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J133" s="13"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" spans="4:10">
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="15"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="4">
         <f>SUM(G128:G133)</f>
         <v>10</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="14">
+      <c r="I134" s="12">
         <f>SUM(I128:I133)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="14"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="4:10">
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8">
         <f>SUM(G134,G122,G110,G98,G86,G74,G62,G50,G39,G27,G18,)</f>
-        <v>139</v>
-      </c>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11">
+        <v>136</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8">
         <f>SUM(I134,I122,I110,I98,I86,,I74,I62,I50,I39,I27,I18)</f>
         <v>410.05</v>
       </c>
-      <c r="J135" s="11"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" spans="4:10">
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" spans="4:10">
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="8">
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18">
         <f>I135/G135</f>
-        <v>2.95</v>
-      </c>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+        <v>3.0150735294117648</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="4:10">
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="D75:I77"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="D114:J114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D87:I89"/>
+    <mergeCell ref="D99:I101"/>
+    <mergeCell ref="D111:I113"/>
+    <mergeCell ref="D123:I125"/>
+    <mergeCell ref="D135:E136"/>
+    <mergeCell ref="D137:F138"/>
+    <mergeCell ref="G137:J138"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="I84:J84"/>
     <mergeCell ref="D8:I9"/>
     <mergeCell ref="D19:I21"/>
     <mergeCell ref="D28:I30"/>
@@ -5617,54 +5522,145 @@
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="I117:J117"/>
     <mergeCell ref="D118:F118"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J99:J101"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="D87:I89"/>
-    <mergeCell ref="D99:I101"/>
-    <mergeCell ref="D111:I113"/>
-    <mergeCell ref="D123:I125"/>
-    <mergeCell ref="D135:E136"/>
-    <mergeCell ref="D137:F138"/>
-    <mergeCell ref="G137:J138"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="D75:I77"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
